--- a/sessionTable.xlsx
+++ b/sessionTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gdrive\nesh\ElectrophysiologyProject\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047EB2A0-5167-470D-8061-E713301D0356}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D41132-4CAD-47A6-A054-8B35E2FB275D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33750" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30765" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessionTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="462">
   <si>
     <t>animalName</t>
   </si>
@@ -1179,6 +1179,502 @@
   </si>
   <si>
     <t>CMR06Right-20191127-141134-MMR-Physiology-Passive-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head</t>
+  </si>
+  <si>
+    <t>[1 4:12 14:15]</t>
+  </si>
+  <si>
+    <t>20200303</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200303-152145-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200303-141217-MMR-Physiology-Passive-1kToneSupermaskerTest.h5
+CMR08Head-20200303-145039-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Head-20200303-150653-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>20200304</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200304-130302-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Head-20200304-134312-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200304-135836-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>20200305</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200305-143059-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Head-20200305-144928-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200305-150449-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>20200306</t>
+  </si>
+  <si>
+    <t>20200307</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200306-112337-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200307-143427-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200307-141916-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Head-20200307-145933-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Head-20200307-151354-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200308-111620-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Head-20200308-121321-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>20200308</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200308-114644-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>20200309</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200309-114330-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>20200311</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200311-115853-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>D1Tail</t>
+  </si>
+  <si>
+    <t>D1Tail-20200309-120922-MMR-Physiology-Passive-1kToneSupermaskerTest.h5</t>
+  </si>
+  <si>
+    <t>D1Tail-20200311-123920-MMR-Physiology-Passive-1kToneSupermaskerTest.h5</t>
+  </si>
+  <si>
+    <t>D1Tail-20200311-124540-MMR-Physiology-Passive-1kToneSupermaskerTest.h5</t>
+  </si>
+  <si>
+    <t>20200311a</t>
+  </si>
+  <si>
+    <t>20200311b</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200313-143706-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>D1Tail-20200313-151236-MMR-Physiology-Passive-1kToneSupermaskerTest.h5</t>
+  </si>
+  <si>
+    <t>20200313</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200313-134517-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Head-20200313-140624-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Head-20200313-142222-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>20200315</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200315-121905-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Head-20200315-131458-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Head-20200315-132934-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200315-125117-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>D1Tail-20200315-134444-MMR-Physiology-Passive-1kToneSupermaskerTest.h5</t>
+  </si>
+  <si>
+    <t>20200317</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200317-100250-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Head-20200317-103229-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Head-20200317-111041-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200317-104828-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>D1Tail-20200317-112403-MMR-Physiology-Passive-1kToneSupermaskerTest.h5</t>
+  </si>
+  <si>
+    <t>D1Tail-20200319-120729-MMR-Physiology-Passive-1kToneSupermaskerTest.h5</t>
+  </si>
+  <si>
+    <t>20200319</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200319-113911-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>D1Tail-20200321-140802-MMR-Physiology-Passive-1kToneSupermaskerTest.h5</t>
+  </si>
+  <si>
+    <t>20200321</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200321-122859-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Head-20200321-131005-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Head-20200321-132605-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200321-134109-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>20200323</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200323-122134-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Head-20200323-125427-MMR-Physiology-Passive-1kToneSilence.h5
+CMR08Head-20200323-133606-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200323-131208-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>D1Tail-20200323-135537-MMR-Physiology-Passive-1kToneSupermaskerTest.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200319-103504-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Head-20200319-112428-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Head-20200319-110839-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200311-122102-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Head-20200311-114153-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200309-103109-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Head-20200309-100602-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Head-20200309-112838-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200306-110609-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Head-20200306-105107-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>20200325</t>
+  </si>
+  <si>
+    <t>D1Tail-20200325-131853-MMR-Physiology-Passive-1kToneSupermaskerTest.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200325-120149-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Head-20200325-124917-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Head-20200325-130414-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200325-122444-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>20200327</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200327-114422-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Head-20200327-122046-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Head-20200327-123617-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Head-20200327-125417-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>D1Tail-20200327-131934-MMR-Physiology-Passive-1kToneSupermaskerTest.h5</t>
+  </si>
+  <si>
+    <t>20200329</t>
+  </si>
+  <si>
+    <t>D1Tail-20200329-111044-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>D1Tail-20200329-105507-MMR-Physiology-Passive-1kToneSupermaskerTest.h5
+D1Tail-20200329-113737-MMR-Physiology-Passive-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>20200331</t>
+  </si>
+  <si>
+    <t>D1Tail-20200331-122230-MMR-Physiology-Active-1kToneSupermasker.h5
+D1Tail-20200331-131243-MMR-Physiology-Passive-1kToneSupermasker.h5
+D1Tail-20200331-132856-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>D1Tail-20200331-134305-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>20200402</t>
+  </si>
+  <si>
+    <t>D1Tail-20200402-122120-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>20200404</t>
+  </si>
+  <si>
+    <t>D1Tail-20200404-125028-MMR-Physiology-Passive-ToneAudiometry.h5</t>
+  </si>
+  <si>
+    <t>D1Tail-20200404-120645-MMR-Physiology-Active-1kToneSupermasker.h5
+D1Tail-20200404-123444-MMR-Physiology-Passive-1kToneSupermasker.h5
+D1Tail-20200404-131311-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>D1Tail-20200402-111134-MMR-Physiology-Active-1kToneSupermasker.h5
+D1Tail-20200402-124445-MMR-Physiology-Passive-1kToneSupermasker.h5
+D1Tail-20200402-120329-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy</t>
+  </si>
+  <si>
+    <t>20200621</t>
+  </si>
+  <si>
+    <t>CMR08Tail</t>
+  </si>
+  <si>
+    <t>20200629</t>
+  </si>
+  <si>
+    <t>CMR08Tail-20200629-120753-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Tail-20200629-134632-MMR-Physiology-Passive-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200629-141247-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Fluffy-20200629-135915-MMR-Physiology-Passive-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200621-132920-MMR-Physiology-Passive-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200703-083854-MMR-Physiology-Active2-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>20200703</t>
+  </si>
+  <si>
+    <t>CMR08Tail-20200703-092138-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Tail-20200703-091023-MMR-Physiology-Passive-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>CMR08Tail-20200705-131302-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Tail-20200705-135058-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Tail-20200705-140415-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>20200705</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200705-142750-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Fluffy-20200705-141445-MMR-Physiology-Passive-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>20200707</t>
+  </si>
+  <si>
+    <t>CMR08Tail-20200707-130045-MMR-Physiology-Ative2-1kToneSupermasker.h5
+CMR08Tail-20200707-134058-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Tail-20200707-132948-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Tail-20200709-125136-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Tail-20200709-132152-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Tail-20200709-133234-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>20200709</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200709-140008-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Fluffy-20200709-134747-MMR-Physiology-Passive-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200707-140809-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Fluffy-20200707-135254-MMR-Physiology-Passive-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200711-133029-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Fluffy-20200711-135758-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Fluffy-20200711-140912-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>20200711</t>
+  </si>
+  <si>
+    <t>CMR08Tail-20200711-144749-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Tail-20200711-143447-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Tail-20200711-142113-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>20200713</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200713-142359-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Fluffy-20200713-140119-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Fluffy-20200713-141224-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Tail-20200713-130605-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Tail-20200713-134804-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Tail-20200713-133611-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200715-145324-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Fluffy-20200715-151641-MMR-Physiology-Passive-1kToneSilence.h5
+CMR08Fluffy-20200715-152924-MMR-Physiology-Passive-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>20200715</t>
+  </si>
+  <si>
+    <t>CMR08Tail-20200715-160812-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Tail-20200715-154100-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Tail-20200715-155532-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>20200717</t>
+  </si>
+  <si>
+    <t>CMR08Tail-20200717-134004-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Tail-20200717-143157-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Tail-20200717-142058-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200717-151200-MMR-Physiology-Ative2-1kToneSupermasker.h5
+CMR08Fluffy-20200717-150056-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Fluffy-20200717-144619-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>[2 4 5 8:15]</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200723-142746-MMR-Physiology-Active2-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200725-123942-MMR-Physiology-Active2-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200727-160859-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Fluffy-20200727-164101-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Fluffy-20200727-165542-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200729-160725-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Fluffy-20200729-164053-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Fluffy-20200729-162744-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>20200723</t>
+  </si>
+  <si>
+    <t>20200725</t>
+  </si>
+  <si>
+    <t>20200727</t>
+  </si>
+  <si>
+    <t>20200729</t>
+  </si>
+  <si>
+    <t>20200731</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200731-140209-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Fluffy-20200731-125833-MMR-Physiology-Pasive-1kToneSupermasker.h5
+CMR08Fluffy-20200731-135038-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>20200802</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200802-144019-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Fluffy-20200802-151216-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Fluffy-20200802-152308-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>20200804</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200804-155139-MMR-Physiology-Active2-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>D2Tail</t>
+  </si>
+  <si>
+    <t>D2Tail-20200731-142204-MMR-Physiology-Active-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>D2Tail-20200729-155600-MMR-Physiology-Active-1kToneSupermasker.h5
+D2Tail-20200729-154242-MMR-Physiology-Passive-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>D2Tail-20200802-153403-MMR-Physiology-Active-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>D2Tail-20200804-165718-MMR-Physiology-Active-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>20200806</t>
+  </si>
+  <si>
+    <t>D2Right</t>
+  </si>
+  <si>
+    <t>D2Right-20200806-140751-MMR-Physiology-Passive-1kToneSupermasker.h5
+D2Right-20200806-142216-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>D2Tail-20200806-150405-MMR-Physiology-Active-1kToneSupermasker.h5
+D2Tail-20200806-145243-MMR-Physiology-Passive-1kToneSupermasker.h5
+D2Tail-20200806-143356-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200806-154918-MMR-Physiology-Active2-1kToneSupermasker.h5
+CMR08Fluffy-20200806-164558-MMR-Physiology-Passive-1kToneSupermasker.h5
+CMR08Fluffy-20200806-162139-MMR-Physiology-Passive-1kToneSilence.h5</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200808-101930-MMR-Physiology-Active2-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>20200808</t>
+  </si>
+  <si>
+    <t>D2Tail-20200808-104809-MMR-Physiology-Active-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>D2Right-20200808-112326-MMR-Physiology-Passive-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>20200810</t>
+  </si>
+  <si>
+    <t>D2Right-20200810-122228-MMR-Physiology-Active-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>D2Tail-20200810-132228-MMR-Physiology-Active-1kToneSupermasker.h5</t>
+  </si>
+  <si>
+    <t>CMR08Fluffy-20200810-114956-MMR-Physiology-Active2-1kToneSupermasker.h5</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1684,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1319,6 +1815,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1786,8 +2288,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I187" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I187" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I325" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I325" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="8" xr3:uid="{604F5DA8-0B9A-4320-9D20-D338CE004AEA}" name="campus" dataDxfId="8"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="animalName" dataDxfId="7"/>
@@ -2100,10 +2602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:I325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="F280" sqref="F280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,8 +2615,8 @@
     <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="75.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.7109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="1"/>
@@ -2330,34 +2832,19 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
@@ -2366,214 +2853,154 @@
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -2581,16 +3008,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>10</v>
@@ -2604,16 +3031,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>10</v>
@@ -2627,22 +3054,22 @@
         <v>8</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -2650,22 +3077,22 @@
         <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>70</v>
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -2673,16 +3100,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>10</v>
@@ -2696,16 +3123,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>10</v>
@@ -2719,91 +3146,91 @@
         <v>8</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="D31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -2811,16 +3238,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>73</v>
+        <v>3</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>10</v>
@@ -2834,16 +3261,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>10</v>
@@ -2857,22 +3284,22 @@
         <v>8</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -2880,16 +3307,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>10</v>
@@ -2903,16 +3330,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>10</v>
@@ -2926,22 +3353,22 @@
         <v>8</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -2949,16 +3376,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>74</v>
+        <v>3</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>10</v>
@@ -2972,22 +3399,22 @@
         <v>8</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -2995,62 +3422,62 @@
         <v>8</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>10</v>
@@ -3064,154 +3491,154 @@
         <v>8</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="G47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="E48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="G48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="D49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>10</v>
@@ -3225,108 +3652,108 @@
         <v>8</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>10</v>
@@ -3340,16 +3767,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>10</v>
@@ -3363,16 +3790,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>10</v>
@@ -3386,108 +3813,108 @@
         <v>8</v>
       </c>
       <c r="C57" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="D61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>10</v>
@@ -3501,177 +3928,177 @@
         <v>8</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="6" t="s">
+      <c r="G66" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="D67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="6" t="s">
+      <c r="G67" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="3" t="s">
+      <c r="E68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="6" t="s">
+      <c r="G68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="E69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>10</v>
@@ -3685,16 +4112,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>10</v>
@@ -3708,22 +4135,22 @@
         <v>8</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>13</v>
       </c>
@@ -3731,22 +4158,22 @@
         <v>8</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>95</v>
+        <v>3</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>13</v>
       </c>
@@ -3754,16 +4181,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>10</v>
@@ -3777,16 +4204,16 @@
         <v>8</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>10</v>
@@ -3800,16 +4227,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>10</v>
@@ -3823,16 +4250,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>10</v>
@@ -3846,16 +4273,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>10</v>
@@ -3869,16 +4296,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>10</v>
@@ -3892,16 +4319,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>10</v>
@@ -3915,16 +4342,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>10</v>
@@ -3938,25 +4365,22 @@
         <v>8</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>13</v>
       </c>
@@ -3964,22 +4388,22 @@
         <v>8</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>13</v>
       </c>
@@ -3987,16 +4411,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>10</v>
@@ -4010,292 +4434,295 @@
         <v>8</v>
       </c>
       <c r="C84" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="3" t="s">
+      <c r="D88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="6" t="s">
+      <c r="G88" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="3" t="s">
+      <c r="E89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="6" t="s">
+      <c r="G89" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="3" t="s">
+      <c r="E90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="6" t="s">
+      <c r="G90" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="3" t="s">
+      <c r="D91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="6" t="s">
+      <c r="G91" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="3" t="s">
+      <c r="E92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="6" t="s">
+      <c r="G92" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="3" t="s">
+      <c r="E93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="6" t="s">
+      <c r="G93" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="3" t="s">
+      <c r="D94" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="6" t="s">
+      <c r="G94" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="3" t="s">
+      <c r="E95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="6" t="s">
+      <c r="G95" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" s="3" t="s">
+      <c r="E96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>10</v>
@@ -4309,16 +4736,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>10</v>
@@ -4332,16 +4759,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>10</v>
@@ -4355,16 +4782,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>196</v>
+        <v>291</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>10</v>
@@ -4378,22 +4805,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4404,19 +4828,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4427,19 +4851,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4450,22 +4874,22 @@
         <v>8</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
@@ -4473,22 +4897,25 @@
         <v>8</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>191</v>
+        <v>3</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I104" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>13</v>
       </c>
@@ -4496,22 +4923,22 @@
         <v>8</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>13</v>
       </c>
@@ -4519,22 +4946,22 @@
         <v>8</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>13</v>
       </c>
@@ -4542,22 +4969,22 @@
         <v>8</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>13</v>
       </c>
@@ -4565,39 +4992,39 @@
         <v>8</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>190</v>
+        <v>3</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>16</v>
@@ -4611,22 +5038,22 @@
         <v>8</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>13</v>
       </c>
@@ -4634,22 +5061,22 @@
         <v>8</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>13</v>
       </c>
@@ -4657,45 +5084,42 @@
         <v>8</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4706,19 +5130,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4729,19 +5153,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4752,22 +5176,22 @@
         <v>8</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>13</v>
       </c>
@@ -4775,19 +5199,22 @@
         <v>8</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4798,22 +5225,22 @@
         <v>8</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>13</v>
       </c>
@@ -4821,22 +5248,22 @@
         <v>8</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>13</v>
       </c>
@@ -4844,22 +5271,22 @@
         <v>8</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>13</v>
       </c>
@@ -4867,16 +5294,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>10</v>
@@ -4890,22 +5317,22 @@
         <v>8</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
@@ -4913,22 +5340,22 @@
         <v>8</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -4936,16 +5363,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>10</v>
@@ -4959,22 +5386,22 @@
         <v>8</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
@@ -4982,28 +5409,22 @@
         <v>8</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H126" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>13</v>
       </c>
@@ -5011,16 +5432,16 @@
         <v>8</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>10</v>
@@ -5034,45 +5455,42 @@
         <v>8</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>18</v>
+      <c r="B129" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>186</v>
+        <v>276</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -5080,115 +5498,106 @@
         <v>13</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>187</v>
+        <v>284</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>211</v>
+        <v>286</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C133" s="6"/>
+      <c r="D133" s="2"/>
+      <c r="F133" s="3"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="I134" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -5198,16 +5607,16 @@
         <v>18</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>19</v>
@@ -5221,16 +5630,16 @@
         <v>18</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>19</v>
@@ -5244,16 +5653,16 @@
         <v>18</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>19</v>
@@ -5267,16 +5676,16 @@
         <v>18</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>19</v>
@@ -5290,16 +5699,16 @@
         <v>18</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>19</v>
@@ -5313,22 +5722,22 @@
         <v>18</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>13</v>
       </c>
@@ -5336,16 +5745,16 @@
         <v>18</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>224</v>
+        <v>3</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>19</v>
@@ -5359,16 +5768,16 @@
         <v>18</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>19</v>
@@ -5382,25 +5791,22 @@
         <v>18</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>13</v>
       </c>
@@ -5408,22 +5814,22 @@
         <v>18</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>230</v>
+        <v>3</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>13</v>
       </c>
@@ -5431,22 +5837,22 @@
         <v>18</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>233</v>
+        <v>3</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>13</v>
       </c>
@@ -5454,22 +5860,22 @@
         <v>18</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>13</v>
       </c>
@@ -5477,22 +5883,22 @@
         <v>18</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>256</v>
+        <v>3</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>13</v>
       </c>
@@ -5500,22 +5906,25 @@
         <v>18</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="I148" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>13</v>
       </c>
@@ -5523,22 +5932,22 @@
         <v>18</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
@@ -5546,22 +5955,22 @@
         <v>18</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
@@ -5569,22 +5978,22 @@
         <v>18</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>13</v>
       </c>
@@ -5592,22 +6001,22 @@
         <v>18</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>13</v>
       </c>
@@ -5615,22 +6024,22 @@
         <v>18</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>13</v>
       </c>
@@ -5638,22 +6047,22 @@
         <v>18</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>13</v>
       </c>
@@ -5661,22 +6070,22 @@
         <v>18</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>13</v>
       </c>
@@ -5684,22 +6093,22 @@
         <v>18</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>13</v>
       </c>
@@ -5707,22 +6116,22 @@
         <v>18</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>250</v>
+        <v>3</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>13</v>
       </c>
@@ -5730,22 +6139,22 @@
         <v>18</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>13</v>
       </c>
@@ -5753,22 +6162,22 @@
         <v>18</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -5776,22 +6185,22 @@
         <v>18</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>261</v>
+        <v>3</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>13</v>
       </c>
@@ -5799,22 +6208,22 @@
         <v>18</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>13</v>
       </c>
@@ -5822,22 +6231,22 @@
         <v>18</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>266</v>
+        <v>3</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>13</v>
       </c>
@@ -5845,22 +6254,22 @@
         <v>18</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>13</v>
       </c>
@@ -5868,16 +6277,16 @@
         <v>18</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>267</v>
+        <v>3</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>227</v>
@@ -5891,16 +6300,16 @@
         <v>18</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>227</v>
@@ -5914,16 +6323,16 @@
         <v>18</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>227</v>
@@ -5937,22 +6346,22 @@
         <v>18</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>13</v>
       </c>
@@ -5960,22 +6369,22 @@
         <v>18</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>13</v>
       </c>
@@ -5983,22 +6392,22 @@
         <v>18</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>283</v>
+        <v>3</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>13</v>
       </c>
@@ -6006,16 +6415,16 @@
         <v>18</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>287</v>
+        <v>3</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>227</v>
@@ -6029,159 +6438,160 @@
         <v>18</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>295</v>
+        <v>3</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>317</v>
+        <v>3</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>318</v>
+        <v>3</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>321</v>
+        <v>3</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C176" s="6"/>
-      <c r="D176" s="2"/>
-      <c r="G176" s="4"/>
+    <row r="176" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C177" s="6"/>
+      <c r="D177" s="2"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="4"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>227</v>
@@ -6192,19 +6602,19 @@
         <v>13</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>227</v>
@@ -6215,19 +6625,19 @@
         <v>13</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>227</v>
@@ -6238,46 +6648,28 @@
         <v>13</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G182" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C182" s="6"/>
+      <c r="D182" s="2"/>
+      <c r="G182" s="4"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
@@ -6287,16 +6679,16 @@
         <v>297</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>227</v>
@@ -6310,16 +6702,16 @@
         <v>297</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>227</v>
@@ -6333,16 +6725,16 @@
         <v>297</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>227</v>
@@ -6356,16 +6748,16 @@
         <v>297</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>227</v>
@@ -6379,22 +6771,2406 @@
         <v>297</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>227</v>
       </c>
     </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C194" s="6"/>
+      <c r="D194" s="2"/>
+    </row>
+    <row r="195" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C227" s="6"/>
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G245" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C247" s="6"/>
+      <c r="D247" s="2"/>
+      <c r="G247" s="4"/>
+    </row>
+    <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G248" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G250" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G252" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G253" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C257" s="6"/>
+      <c r="D257" s="2"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="4"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C258" s="6"/>
+      <c r="D258" s="2"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="4"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C259" s="6"/>
+      <c r="D259" s="2"/>
+      <c r="G259" s="4"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C260" s="6"/>
+      <c r="D260" s="2"/>
+      <c r="G260" s="4"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G261" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G262" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G263" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G264" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G265" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G266" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G267" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G268" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G269" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G270" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G271" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G274" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G275" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="G276" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G277" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G279" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G280" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C281" s="6"/>
+      <c r="D281" s="2"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C282" s="6"/>
+      <c r="D282" s="2"/>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C283" s="6"/>
+      <c r="D283" s="2"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C284" s="6"/>
+      <c r="D284" s="2"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C285" s="6"/>
+      <c r="D285" s="2"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C286" s="6"/>
+      <c r="D286" s="2"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C287" s="6"/>
+      <c r="D287" s="2"/>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C288" s="6"/>
+      <c r="D288" s="2"/>
+    </row>
+    <row r="289" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="G289" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G290" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G291" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G292" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G293" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G295" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C296" s="6"/>
+      <c r="D296" s="2"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C297" s="6"/>
+      <c r="D297" s="2"/>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C298" s="6"/>
+      <c r="D298" s="2"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C299" s="6"/>
+      <c r="D299" s="2"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C300" s="6"/>
+      <c r="D300" s="2"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C301" s="6"/>
+      <c r="D301" s="2"/>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C302" s="6"/>
+      <c r="D302" s="2"/>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C303" s="6"/>
+      <c r="D303" s="2"/>
+    </row>
+    <row r="304" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G304" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G305" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G306" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C307" s="6"/>
+      <c r="D307" s="2"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C308" s="6"/>
+      <c r="D308" s="2"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C309" s="6"/>
+      <c r="D309" s="2"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C310" s="6"/>
+      <c r="D310" s="2"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C311" s="6"/>
+      <c r="D311" s="2"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C312" s="6"/>
+      <c r="D312" s="2"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C313" s="6"/>
+      <c r="D313" s="2"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C314" s="6"/>
+      <c r="D314" s="2"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C315" s="6"/>
+      <c r="D315" s="2"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C316" s="6"/>
+      <c r="D316" s="2"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C317" s="6"/>
+      <c r="D317" s="2"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C318" s="6"/>
+      <c r="D318" s="2"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C319" s="6"/>
+      <c r="D319" s="2"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C320" s="6"/>
+      <c r="D320" s="2"/>
+    </row>
+    <row r="321" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C321" s="6"/>
+      <c r="D321" s="2"/>
+    </row>
+    <row r="322" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C322" s="6"/>
+      <c r="D322" s="2"/>
+    </row>
+    <row r="323" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C323" s="6"/>
+      <c r="D323" s="2"/>
+    </row>
+    <row r="324" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C324" s="6"/>
+      <c r="D324" s="2"/>
+    </row>
+    <row r="325" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C325" s="6"/>
+      <c r="D325" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/sessionTable.xlsx
+++ b/sessionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gdrive\nesh\ElectrophysiologyProject\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F536D97-9B8C-469C-BD89-D628007FA2DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33918A2-0DFE-4751-9157-BC5CB4F94A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="608">
   <si>
     <t>animalName</t>
   </si>
@@ -2821,8 +2821,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I455" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I455" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I458" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I458" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="8" xr3:uid="{604F5DA8-0B9A-4320-9D20-D338CE004AEA}" name="campus" dataDxfId="8"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="animalName" dataDxfId="7"/>
@@ -3135,10 +3135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I455"/>
+  <dimension ref="A1:I458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="G349" sqref="G349"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="D180" sqref="D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="I172" s="3"/>
     </row>
-    <row r="173" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>13</v>
       </c>
@@ -7026,23 +7026,23 @@
         <v>18</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>77</v>
+        <v>605</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I173" s="3"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>13</v>
       </c>
@@ -7053,20 +7053,20 @@
         <v>243</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I174" s="3"/>
     </row>
-    <row r="175" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>13</v>
       </c>
@@ -7074,23 +7074,23 @@
         <v>18</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I175" s="3"/>
     </row>
-    <row r="176" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>13</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>18</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>22</v>
@@ -7107,14 +7107,14 @@
         <v>3</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I176" s="3"/>
     </row>
-    <row r="177" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>13</v>
       </c>
@@ -7122,23 +7122,23 @@
         <v>18</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>116</v>
+        <v>605</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I177" s="3"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>13</v>
       </c>
@@ -7149,20 +7149,20 @@
         <v>246</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>250</v>
+      <c r="F178" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I178" s="3"/>
     </row>
-    <row r="179" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>13</v>
       </c>
@@ -7170,16 +7170,16 @@
         <v>18</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>22</v>
+        <v>605</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>227</v>
@@ -7194,7 +7194,7 @@
         <v>18</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>116</v>
@@ -7203,7 +7203,7 @@
         <v>3</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>227</v>
@@ -7218,7 +7218,7 @@
         <v>18</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>23</v>
@@ -7227,7 +7227,7 @@
         <v>3</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>227</v>
@@ -7242,7 +7242,7 @@
         <v>18</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>22</v>
@@ -7251,14 +7251,14 @@
         <v>3</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I182" s="3"/>
     </row>
-    <row r="183" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>13</v>
       </c>
@@ -7266,23 +7266,23 @@
         <v>18</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I183" s="3"/>
     </row>
-    <row r="184" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>13</v>
       </c>
@@ -7290,23 +7290,23 @@
         <v>18</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F184" s="3" t="s">
-        <v>268</v>
+      <c r="F184" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I184" s="3"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>13</v>
       </c>
@@ -7314,23 +7314,23 @@
         <v>18</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>267</v>
+      <c r="F185" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I185" s="3"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>13</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>18</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>22</v>
@@ -7346,15 +7346,15 @@
       <c r="E186" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>270</v>
+      <c r="F186" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I186" s="3"/>
     </row>
-    <row r="187" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>13</v>
       </c>
@@ -7362,23 +7362,23 @@
         <v>18</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I187" s="3"/>
     </row>
-    <row r="188" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>13</v>
       </c>
@@ -7386,23 +7386,23 @@
         <v>18</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F188" s="3" t="s">
-        <v>277</v>
+      <c r="F188" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I188" s="3"/>
     </row>
-    <row r="189" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>13</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>18</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>22</v>
@@ -7418,8 +7418,8 @@
       <c r="E189" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F189" s="3" t="s">
-        <v>281</v>
+      <c r="F189" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>227</v>
@@ -7434,7 +7434,7 @@
         <v>18</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>22</v>
@@ -7443,7 +7443,7 @@
         <v>3</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>227</v>
@@ -7458,7 +7458,7 @@
         <v>18</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>22</v>
@@ -7467,7 +7467,7 @@
         <v>3</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>227</v>
@@ -7482,113 +7482,113 @@
         <v>18</v>
       </c>
       <c r="C192" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I192" s="3"/>
+    </row>
+    <row r="193" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I193" s="3"/>
+    </row>
+    <row r="194" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I194" s="3"/>
+    </row>
+    <row r="195" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F192" s="3" t="s">
+      <c r="D195" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F195" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="G192" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I192" s="3"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C193" s="6"/>
-      <c r="D193" s="2"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="4"/>
-      <c r="I193" s="3"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C194" s="6"/>
-      <c r="D194" s="2"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="4"/>
-      <c r="I194" s="3"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C195" s="6"/>
-      <c r="D195" s="2"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="4"/>
+      <c r="G195" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="I195" s="3"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G196" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C196" s="6"/>
+      <c r="D196" s="2"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="4"/>
       <c r="I196" s="3"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G197" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C197" s="6"/>
+      <c r="D197" s="2"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="4"/>
       <c r="I197" s="3"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G198" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C198" s="6"/>
+      <c r="D198" s="2"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="4"/>
       <c r="I198" s="3"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -7599,110 +7599,110 @@
         <v>293</v>
       </c>
       <c r="C199" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I199" s="3"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I200" s="3"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I201" s="3"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C202" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F199" s="1" t="s">
+      <c r="D202" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G199" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I199" s="3"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C200" s="6"/>
-      <c r="D200" s="2"/>
-      <c r="G200" s="4"/>
-      <c r="I200" s="3"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C201" s="6"/>
-      <c r="D201" s="2"/>
-      <c r="G201" s="4"/>
-      <c r="I201" s="3"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C202" s="6"/>
-      <c r="D202" s="2"/>
-      <c r="G202" s="4"/>
+      <c r="G202" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="I202" s="3"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G203" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C203" s="6"/>
+      <c r="D203" s="2"/>
+      <c r="G203" s="4"/>
       <c r="I203" s="3"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G204" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C204" s="6"/>
+      <c r="D204" s="2"/>
+      <c r="G204" s="4"/>
       <c r="I204" s="3"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G205" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C205" s="6"/>
+      <c r="D205" s="2"/>
+      <c r="G205" s="4"/>
       <c r="I205" s="3"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -7713,7 +7713,7 @@
         <v>297</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>22</v>
@@ -7722,7 +7722,7 @@
         <v>3</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G206" s="4" t="s">
         <v>227</v>
@@ -7737,7 +7737,7 @@
         <v>297</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>22</v>
@@ -7746,7 +7746,7 @@
         <v>3</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G207" s="4" t="s">
         <v>227</v>
@@ -7761,7 +7761,7 @@
         <v>297</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>22</v>
@@ -7770,7 +7770,7 @@
         <v>3</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G208" s="4" t="s">
         <v>227</v>
@@ -7785,7 +7785,7 @@
         <v>297</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>22</v>
@@ -7794,7 +7794,7 @@
         <v>3</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G209" s="4" t="s">
         <v>227</v>
@@ -7809,7 +7809,7 @@
         <v>297</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>22</v>
@@ -7818,7 +7818,7 @@
         <v>3</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>227</v>
@@ -7833,7 +7833,7 @@
         <v>297</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>22</v>
@@ -7842,7 +7842,7 @@
         <v>3</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G211" s="4" t="s">
         <v>227</v>
@@ -7857,7 +7857,7 @@
         <v>297</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>22</v>
@@ -7866,7 +7866,7 @@
         <v>3</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>227</v>
@@ -7881,112 +7881,112 @@
         <v>297</v>
       </c>
       <c r="C213" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I213" s="3"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I214" s="3"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I215" s="3"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D213" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F213" s="1" t="s">
+      <c r="D216" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F216" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G213" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I213" s="3"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C214" s="6"/>
-      <c r="D214" s="2"/>
-      <c r="G214" s="4"/>
-      <c r="I214" s="3"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C215" s="6"/>
-      <c r="D215" s="2"/>
-      <c r="G215" s="4"/>
-      <c r="I215" s="3"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C216" s="6"/>
-      <c r="D216" s="2"/>
+      <c r="G216" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="I216" s="3"/>
     </row>
-    <row r="217" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>323</v>
-      </c>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C217" s="6"/>
+      <c r="D217" s="2"/>
+      <c r="G217" s="4"/>
       <c r="I217" s="3"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>323</v>
-      </c>
+      <c r="C218" s="6"/>
+      <c r="D218" s="2"/>
+      <c r="G218" s="4"/>
       <c r="I218" s="3"/>
     </row>
-    <row r="219" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F219" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>323</v>
-      </c>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C219" s="6"/>
+      <c r="D219" s="2"/>
       <c r="I219" s="3"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>13</v>
       </c>
@@ -7994,23 +7994,23 @@
         <v>322</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I220" s="3"/>
     </row>
-    <row r="221" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>13</v>
       </c>
@@ -8018,23 +8018,23 @@
         <v>322</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F221" s="3" t="s">
-        <v>331</v>
+      <c r="F221" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I221" s="3"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>13</v>
       </c>
@@ -8042,23 +8042,23 @@
         <v>322</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F222" s="1" t="s">
-        <v>332</v>
+      <c r="F222" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I222" s="3"/>
     </row>
-    <row r="223" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>13</v>
       </c>
@@ -8066,23 +8066,23 @@
         <v>322</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I223" s="3"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>13</v>
       </c>
@@ -8090,23 +8090,23 @@
         <v>322</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F224" s="1" t="s">
-        <v>335</v>
+      <c r="F224" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I224" s="3"/>
     </row>
-    <row r="225" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>13</v>
       </c>
@@ -8114,23 +8114,23 @@
         <v>322</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F225" s="3" t="s">
-        <v>337</v>
+      <c r="F225" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I225" s="3"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>13</v>
       </c>
@@ -8138,23 +8138,23 @@
         <v>322</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F226" s="1" t="s">
-        <v>336</v>
+      <c r="F226" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I226" s="3"/>
     </row>
-    <row r="227" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>13</v>
       </c>
@@ -8162,23 +8162,23 @@
         <v>322</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F227" s="3" t="s">
-        <v>338</v>
+      <c r="F227" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I227" s="3"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>13</v>
       </c>
@@ -8186,23 +8186,23 @@
         <v>322</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>340</v>
+      <c r="F228" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I228" s="3"/>
     </row>
-    <row r="229" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>13</v>
       </c>
@@ -8210,23 +8210,23 @@
         <v>322</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F229" s="3" t="s">
-        <v>376</v>
+      <c r="F229" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I229" s="3"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>13</v>
       </c>
@@ -8234,23 +8234,23 @@
         <v>322</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F230" s="1" t="s">
-        <v>342</v>
+      <c r="F230" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I230" s="3"/>
     </row>
-    <row r="231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>13</v>
       </c>
@@ -8258,23 +8258,23 @@
         <v>322</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F231" s="3" t="s">
-        <v>375</v>
+      <c r="F231" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I231" s="3"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>13</v>
       </c>
@@ -8282,23 +8282,23 @@
         <v>322</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>344</v>
+      <c r="F232" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I232" s="3"/>
     </row>
-    <row r="233" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>13</v>
       </c>
@@ -8306,23 +8306,23 @@
         <v>322</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F233" s="3" t="s">
-        <v>354</v>
+      <c r="F233" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I233" s="3"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>13</v>
       </c>
@@ -8330,23 +8330,23 @@
         <v>322</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>351</v>
+      <c r="F234" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I234" s="3"/>
     </row>
-    <row r="235" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>13</v>
       </c>
@@ -8354,23 +8354,23 @@
         <v>322</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F235" s="3" t="s">
-        <v>356</v>
+      <c r="F235" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I235" s="3"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>13</v>
       </c>
@@ -8378,23 +8378,23 @@
         <v>322</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F236" s="1" t="s">
-        <v>357</v>
+      <c r="F236" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I236" s="3"/>
     </row>
-    <row r="237" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>13</v>
       </c>
@@ -8402,23 +8402,23 @@
         <v>322</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F237" s="3" t="s">
-        <v>360</v>
+      <c r="F237" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I237" s="3"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>13</v>
       </c>
@@ -8426,23 +8426,23 @@
         <v>322</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F238" s="1" t="s">
-        <v>361</v>
+      <c r="F238" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I238" s="3"/>
     </row>
-    <row r="239" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>13</v>
       </c>
@@ -8450,23 +8450,23 @@
         <v>322</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F239" s="3" t="s">
-        <v>374</v>
+      <c r="F239" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I239" s="3"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>13</v>
       </c>
@@ -8474,23 +8474,23 @@
         <v>322</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F240" s="1" t="s">
-        <v>365</v>
+      <c r="F240" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I240" s="3"/>
     </row>
-    <row r="241" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>13</v>
       </c>
@@ -8498,23 +8498,23 @@
         <v>322</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F241" s="3" t="s">
-        <v>368</v>
+      <c r="F241" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I241" s="3"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>13</v>
       </c>
@@ -8522,23 +8522,23 @@
         <v>322</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F242" s="1" t="s">
-        <v>369</v>
+      <c r="F242" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I242" s="3"/>
     </row>
-    <row r="243" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>13</v>
       </c>
@@ -8546,23 +8546,23 @@
         <v>322</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F243" s="3" t="s">
-        <v>371</v>
+      <c r="F243" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I243" s="3"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>13</v>
       </c>
@@ -8570,23 +8570,23 @@
         <v>322</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F244" s="1" t="s">
-        <v>372</v>
+      <c r="F244" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I244" s="3"/>
     </row>
-    <row r="245" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>13</v>
       </c>
@@ -8594,23 +8594,23 @@
         <v>322</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F245" s="3" t="s">
-        <v>380</v>
+      <c r="F245" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I245" s="3"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>13</v>
       </c>
@@ -8618,23 +8618,23 @@
         <v>322</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F246" s="1" t="s">
-        <v>381</v>
+      <c r="F246" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I246" s="3"/>
     </row>
-    <row r="247" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>13</v>
       </c>
@@ -8642,23 +8642,23 @@
         <v>322</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F247" s="3" t="s">
-        <v>383</v>
+      <c r="F247" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>323</v>
       </c>
       <c r="I247" s="3"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>13</v>
       </c>
@@ -8666,16 +8666,16 @@
         <v>322</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F248" s="1" t="s">
-        <v>384</v>
+      <c r="F248" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>323</v>
@@ -8683,90 +8683,90 @@
       <c r="I248" s="3"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C249" s="6"/>
-      <c r="D249" s="2"/>
+      <c r="A249" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="I249" s="3"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C250" s="6"/>
-      <c r="D250" s="2"/>
+    <row r="250" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="I250" s="3"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C251" s="6"/>
-      <c r="D251" s="2"/>
+      <c r="A251" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="I251" s="3"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G252" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C252" s="6"/>
+      <c r="D252" s="2"/>
       <c r="I252" s="3"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G253" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C253" s="6"/>
+      <c r="D253" s="2"/>
       <c r="I253" s="3"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G254" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C254" s="6"/>
+      <c r="D254" s="2"/>
       <c r="I254" s="3"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -8777,7 +8777,7 @@
         <v>345</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>22</v>
@@ -8786,7 +8786,7 @@
         <v>9</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G255" s="4" t="s">
         <v>227</v>
@@ -8801,7 +8801,7 @@
         <v>345</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>22</v>
@@ -8810,7 +8810,7 @@
         <v>9</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G256" s="4" t="s">
         <v>227</v>
@@ -8825,7 +8825,7 @@
         <v>345</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>22</v>
@@ -8834,7 +8834,7 @@
         <v>9</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="G257" s="4" t="s">
         <v>227</v>
@@ -8849,7 +8849,7 @@
         <v>345</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>22</v>
@@ -8858,7 +8858,7 @@
         <v>9</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="G258" s="4" t="s">
         <v>227</v>
@@ -8873,7 +8873,7 @@
         <v>345</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>22</v>
@@ -8882,7 +8882,7 @@
         <v>9</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G259" s="4" t="s">
         <v>227</v>
@@ -8897,7 +8897,7 @@
         <v>345</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>22</v>
@@ -8906,7 +8906,7 @@
         <v>9</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="G260" s="4" t="s">
         <v>227</v>
@@ -8921,7 +8921,7 @@
         <v>345</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>22</v>
@@ -8930,7 +8930,7 @@
         <v>9</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="G261" s="4" t="s">
         <v>227</v>
@@ -8945,7 +8945,7 @@
         <v>345</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>22</v>
@@ -8954,14 +8954,14 @@
         <v>9</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="G262" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I262" s="3"/>
     </row>
-    <row r="263" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>13</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>345</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>22</v>
@@ -8977,8 +8977,8 @@
       <c r="E263" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F263" s="3" t="s">
-        <v>388</v>
+      <c r="F263" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="G263" s="4" t="s">
         <v>227</v>
@@ -8993,23 +8993,23 @@
         <v>345</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G264" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I264" s="3"/>
     </row>
-    <row r="265" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>13</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>345</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>22</v>
@@ -9025,15 +9025,15 @@
       <c r="E265" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F265" s="3" t="s">
-        <v>390</v>
+      <c r="F265" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="G265" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I265" s="3"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>13</v>
       </c>
@@ -9041,23 +9041,23 @@
         <v>345</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F266" s="1" t="s">
-        <v>391</v>
+      <c r="F266" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="G266" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I266" s="3"/>
     </row>
-    <row r="267" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>13</v>
       </c>
@@ -9065,23 +9065,23 @@
         <v>345</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F267" s="3" t="s">
-        <v>397</v>
+      <c r="F267" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="G267" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I267" s="3"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>13</v>
       </c>
@@ -9089,23 +9089,23 @@
         <v>345</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F268" s="1" t="s">
-        <v>393</v>
+      <c r="F268" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="G268" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I268" s="3"/>
     </row>
-    <row r="269" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>13</v>
       </c>
@@ -9113,23 +9113,23 @@
         <v>345</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F269" s="3" t="s">
-        <v>396</v>
+      <c r="F269" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="G269" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I269" s="3"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>13</v>
       </c>
@@ -9137,113 +9137,113 @@
         <v>345</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F270" s="1" t="s">
+      <c r="F270" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G270" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I270" s="3"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G271" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I271" s="3"/>
+    </row>
+    <row r="272" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I272" s="3"/>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F273" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G270" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I270" s="3"/>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C271" s="6"/>
-      <c r="D271" s="2"/>
-      <c r="G271" s="4"/>
-      <c r="I271" s="3"/>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C272" s="6"/>
-      <c r="D272" s="2"/>
-      <c r="G272" s="4"/>
-      <c r="I272" s="3"/>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C273" s="6"/>
-      <c r="D273" s="2"/>
-      <c r="G273" s="4"/>
+      <c r="G273" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="I273" s="3"/>
     </row>
-    <row r="274" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F274" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="G274" s="4" t="s">
-        <v>227</v>
-      </c>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C274" s="6"/>
+      <c r="D274" s="2"/>
+      <c r="G274" s="4"/>
       <c r="I274" s="3"/>
     </row>
-    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F275" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="G275" s="4" t="s">
-        <v>227</v>
-      </c>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C275" s="6"/>
+      <c r="D275" s="2"/>
+      <c r="G275" s="4"/>
       <c r="I275" s="3"/>
     </row>
-    <row r="276" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F276" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G276" s="4" t="s">
-        <v>227</v>
-      </c>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C276" s="6"/>
+      <c r="D276" s="2"/>
+      <c r="G276" s="4"/>
       <c r="I276" s="3"/>
     </row>
-    <row r="277" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>13</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>400</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>22</v>
@@ -9260,14 +9260,14 @@
         <v>3</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="G277" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I277" s="3"/>
     </row>
-    <row r="278" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>13</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>400</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>22</v>
@@ -9284,7 +9284,7 @@
         <v>3</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G278" s="4" t="s">
         <v>227</v>
@@ -9299,7 +9299,7 @@
         <v>400</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>22</v>
@@ -9308,7 +9308,7 @@
         <v>3</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="G279" s="4" t="s">
         <v>227</v>
@@ -9323,7 +9323,7 @@
         <v>400</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>22</v>
@@ -9332,7 +9332,7 @@
         <v>3</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G280" s="4" t="s">
         <v>227</v>
@@ -9347,7 +9347,7 @@
         <v>400</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>22</v>
@@ -9356,7 +9356,7 @@
         <v>3</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="G281" s="4" t="s">
         <v>227</v>
@@ -9371,115 +9371,115 @@
         <v>400</v>
       </c>
       <c r="C282" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G282" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I282" s="3"/>
+    </row>
+    <row r="283" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G283" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I283" s="3"/>
+    </row>
+    <row r="284" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G284" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I284" s="3"/>
+    </row>
+    <row r="285" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C285" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="D282" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F282" s="3" t="s">
+      <c r="D285" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F285" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="G282" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I282" s="3"/>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C283" s="6"/>
-      <c r="D283" s="2"/>
-      <c r="F283" s="3"/>
-      <c r="G283" s="4"/>
-      <c r="I283" s="3"/>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C284" s="6"/>
-      <c r="D284" s="2"/>
-      <c r="F284" s="3"/>
-      <c r="G284" s="4"/>
-      <c r="I284" s="3"/>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C285" s="6"/>
-      <c r="D285" s="2"/>
-      <c r="G285" s="4"/>
+      <c r="G285" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="I285" s="3"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C286" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="G286" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="C286" s="6"/>
+      <c r="D286" s="2"/>
+      <c r="F286" s="3"/>
+      <c r="G286" s="4"/>
       <c r="I286" s="3"/>
     </row>
-    <row r="287" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C287" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="G287" s="4" t="s">
-        <v>429</v>
-      </c>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C287" s="6"/>
+      <c r="D287" s="2"/>
+      <c r="F287" s="3"/>
+      <c r="G287" s="4"/>
       <c r="I287" s="3"/>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C288" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G288" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="C288" s="6"/>
+      <c r="D288" s="2"/>
+      <c r="G288" s="4"/>
       <c r="I288" s="3"/>
     </row>
-    <row r="289" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>13</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>398</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>22</v>
@@ -9495,8 +9495,8 @@
       <c r="E289" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F289" s="3" t="s">
-        <v>410</v>
+      <c r="F289" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="G289" s="4" t="s">
         <v>429</v>
@@ -9511,7 +9511,7 @@
         <v>398</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>22</v>
@@ -9520,14 +9520,14 @@
         <v>3</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="G290" s="4" t="s">
         <v>429</v>
       </c>
       <c r="I290" s="3"/>
     </row>
-    <row r="291" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>13</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>398</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>22</v>
@@ -9543,15 +9543,15 @@
       <c r="E291" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F291" s="3" t="s">
-        <v>415</v>
+      <c r="F291" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="G291" s="4" t="s">
         <v>429</v>
       </c>
       <c r="I291" s="3"/>
     </row>
-    <row r="292" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>13</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>398</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>22</v>
@@ -9568,14 +9568,14 @@
         <v>3</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G292" s="4" t="s">
         <v>429</v>
       </c>
       <c r="I292" s="3"/>
     </row>
-    <row r="293" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>13</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>398</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>22</v>
@@ -9592,14 +9592,14 @@
         <v>3</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G293" s="4" t="s">
         <v>429</v>
       </c>
       <c r="I293" s="3"/>
     </row>
-    <row r="294" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>13</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>398</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>22</v>
@@ -9616,7 +9616,7 @@
         <v>3</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G294" s="4" t="s">
         <v>429</v>
@@ -9631,7 +9631,7 @@
         <v>398</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>22</v>
@@ -9640,14 +9640,14 @@
         <v>3</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G295" s="4" t="s">
         <v>429</v>
       </c>
       <c r="I295" s="3"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>13</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>398</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>22</v>
@@ -9664,14 +9664,14 @@
         <v>3</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G296" s="4" t="s">
         <v>429</v>
       </c>
       <c r="I296" s="3"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>13</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>398</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>22</v>
@@ -9688,7 +9688,7 @@
         <v>3</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G297" s="4" t="s">
         <v>429</v>
@@ -9703,7 +9703,7 @@
         <v>398</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>22</v>
@@ -9712,14 +9712,14 @@
         <v>3</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G298" s="4" t="s">
         <v>429</v>
       </c>
       <c r="I298" s="3"/>
     </row>
-    <row r="299" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>13</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>398</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>22</v>
@@ -9736,14 +9736,14 @@
         <v>3</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G299" s="4" t="s">
         <v>429</v>
       </c>
       <c r="I299" s="3"/>
     </row>
-    <row r="300" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>13</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>398</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>22</v>
@@ -9760,7 +9760,7 @@
         <v>3</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G300" s="4" t="s">
         <v>429</v>
@@ -9775,7 +9775,7 @@
         <v>398</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>22</v>
@@ -9784,14 +9784,14 @@
         <v>3</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="G301" s="4" t="s">
         <v>429</v>
       </c>
       <c r="I301" s="3"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>13</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>398</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>22</v>
@@ -9808,7 +9808,7 @@
         <v>3</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="G302" s="4" t="s">
         <v>429</v>
@@ -9823,7 +9823,7 @@
         <v>398</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>22</v>
@@ -9832,14 +9832,14 @@
         <v>3</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="G303" s="4" t="s">
         <v>429</v>
       </c>
       <c r="I303" s="3"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>13</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>398</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>22</v>
@@ -9855,8 +9855,8 @@
       <c r="E304" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F304" s="1" t="s">
-        <v>454</v>
+      <c r="F304" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="G304" s="4" t="s">
         <v>429</v>
@@ -9871,7 +9871,7 @@
         <v>398</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>22</v>
@@ -9879,15 +9879,15 @@
       <c r="E305" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F305" s="1" t="s">
-        <v>461</v>
+      <c r="F305" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="G305" s="4" t="s">
         <v>429</v>
       </c>
       <c r="I305" s="3"/>
     </row>
-    <row r="306" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>13</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>398</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>22</v>
@@ -9904,7 +9904,7 @@
         <v>3</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="G306" s="4" t="s">
         <v>429</v>
@@ -9919,7 +9919,7 @@
         <v>398</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>22</v>
@@ -9927,8 +9927,8 @@
       <c r="E307" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F307" s="3" t="s">
-        <v>467</v>
+      <c r="F307" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="G307" s="4" t="s">
         <v>429</v>
@@ -9943,7 +9943,7 @@
         <v>398</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>22</v>
@@ -9951,15 +9951,15 @@
       <c r="E308" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F308" s="3" t="s">
-        <v>471</v>
+      <c r="F308" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="G308" s="4" t="s">
         <v>429</v>
       </c>
       <c r="I308" s="3"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>13</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>398</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>22</v>
@@ -9975,8 +9975,8 @@
       <c r="E309" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F309" s="1" t="s">
-        <v>476</v>
+      <c r="F309" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="G309" s="4" t="s">
         <v>429</v>
@@ -9984,93 +9984,93 @@
       <c r="I309" s="3"/>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C310" s="6"/>
-      <c r="D310" s="2"/>
+      <c r="A310" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="G310" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="I310" s="3"/>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C311" s="6"/>
-      <c r="D311" s="2"/>
+      <c r="A311" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G311" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="I311" s="3"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C312" s="6"/>
-      <c r="D312" s="2"/>
+      <c r="A312" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G312" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="I312" s="3"/>
     </row>
-    <row r="313" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C313" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F313" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="G313" s="4" t="s">
-        <v>227</v>
-      </c>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C313" s="6"/>
+      <c r="D313" s="2"/>
       <c r="I313" s="3"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C314" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F314" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="G314" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C314" s="6"/>
+      <c r="D314" s="2"/>
       <c r="I314" s="3"/>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C315" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F315" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="G315" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C315" s="6"/>
+      <c r="D315" s="2"/>
       <c r="I315" s="3"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>13</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>444</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>22</v>
@@ -10087,14 +10087,14 @@
         <v>9</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G316" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I316" s="3"/>
     </row>
-    <row r="317" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>13</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>444</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>22</v>
@@ -10111,7 +10111,7 @@
         <v>9</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G317" s="4" t="s">
         <v>227</v>
@@ -10126,7 +10126,7 @@
         <v>444</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>22</v>
@@ -10134,8 +10134,8 @@
       <c r="E318" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F318" s="1" t="s">
-        <v>456</v>
+      <c r="F318" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="G318" s="4" t="s">
         <v>227</v>
@@ -10150,7 +10150,7 @@
         <v>444</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>22</v>
@@ -10158,15 +10158,15 @@
       <c r="E319" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F319" s="1" t="s">
-        <v>460</v>
+      <c r="F319" s="3" t="s">
+        <v>448</v>
       </c>
       <c r="G319" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I319" s="3"/>
     </row>
-    <row r="320" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>13</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>444</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>22</v>
@@ -10183,14 +10183,14 @@
         <v>9</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G320" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I320" s="3"/>
     </row>
-    <row r="321" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>13</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>444</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>22</v>
@@ -10206,15 +10206,15 @@
       <c r="E321" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F321" s="3" t="s">
-        <v>469</v>
+      <c r="F321" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="G321" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I321" s="3"/>
     </row>
-    <row r="322" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>13</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>444</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>22</v>
@@ -10230,15 +10230,15 @@
       <c r="E322" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F322" s="3" t="s">
-        <v>473</v>
+      <c r="F322" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="G322" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I322" s="3"/>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>13</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>444</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>22</v>
@@ -10255,14 +10255,14 @@
         <v>9</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="G323" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I323" s="3"/>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>13</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>444</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>22</v>
@@ -10278,8 +10278,8 @@
       <c r="E324" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F324" s="1" t="s">
-        <v>482</v>
+      <c r="F324" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="G324" s="4" t="s">
         <v>227</v>
@@ -10294,7 +10294,7 @@
         <v>444</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>22</v>
@@ -10303,14 +10303,14 @@
         <v>9</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="G325" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I325" s="3"/>
     </row>
-    <row r="326" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>13</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>444</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>22</v>
@@ -10327,7 +10327,7 @@
         <v>9</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="G326" s="4" t="s">
         <v>227</v>
@@ -10342,7 +10342,7 @@
         <v>444</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>22</v>
@@ -10350,8 +10350,8 @@
       <c r="E327" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F327" s="3" t="s">
-        <v>500</v>
+      <c r="F327" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="G327" s="4" t="s">
         <v>227</v>
@@ -10366,7 +10366,7 @@
         <v>444</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>22</v>
@@ -10375,7 +10375,7 @@
         <v>9</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="G328" s="4" t="s">
         <v>227</v>
@@ -10390,7 +10390,7 @@
         <v>444</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>22</v>
@@ -10399,14 +10399,14 @@
         <v>9</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G329" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I329" s="3"/>
     </row>
-    <row r="330" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>13</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>444</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>22</v>
@@ -10423,14 +10423,14 @@
         <v>9</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="G330" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I330" s="3"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>13</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>444</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>22</v>
@@ -10447,14 +10447,14 @@
         <v>9</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="G331" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I331" s="3"/>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>13</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>444</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>22</v>
@@ -10471,102 +10471,102 @@
         <v>9</v>
       </c>
       <c r="F332" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G332" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I332" s="3"/>
+    </row>
+    <row r="333" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G333" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I333" s="3"/>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G334" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I334" s="3"/>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F335" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="G332" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I332" s="3"/>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C333" s="6"/>
-      <c r="D333" s="2"/>
-      <c r="F333" s="3"/>
-      <c r="G333" s="4"/>
-      <c r="I333" s="3"/>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C334" s="6"/>
-      <c r="D334" s="2"/>
-      <c r="F334" s="3"/>
-      <c r="G334" s="4"/>
-      <c r="I334" s="3"/>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C335" s="6"/>
-      <c r="D335" s="2"/>
+      <c r="G335" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="I335" s="3"/>
     </row>
-    <row r="336" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F336" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="G336" s="4" t="s">
-        <v>227</v>
-      </c>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C336" s="6"/>
+      <c r="D336" s="2"/>
+      <c r="F336" s="3"/>
+      <c r="G336" s="4"/>
       <c r="I336" s="3"/>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C337" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F337" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="G337" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C337" s="6"/>
+      <c r="D337" s="2"/>
+      <c r="F337" s="3"/>
+      <c r="G337" s="4"/>
       <c r="I337" s="3"/>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C338" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="D338" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F338" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="G338" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C338" s="6"/>
+      <c r="D338" s="2"/>
       <c r="I338" s="3"/>
     </row>
     <row r="339" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -10577,7 +10577,7 @@
         <v>450</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>22</v>
@@ -10586,14 +10586,14 @@
         <v>9</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="G339" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I339" s="3"/>
     </row>
-    <row r="340" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>13</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>450</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>22</v>
@@ -10609,15 +10609,15 @@
       <c r="E340" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F340" s="3" t="s">
-        <v>468</v>
+      <c r="F340" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="G340" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I340" s="3"/>
     </row>
-    <row r="341" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>13</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>450</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>22</v>
@@ -10633,15 +10633,15 @@
       <c r="E341" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F341" s="3" t="s">
-        <v>472</v>
+      <c r="F341" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="G341" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I341" s="3"/>
     </row>
-    <row r="342" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>13</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>450</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>22</v>
@@ -10658,7 +10658,7 @@
         <v>9</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="G342" s="4" t="s">
         <v>227</v>
@@ -10673,7 +10673,7 @@
         <v>450</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>22</v>
@@ -10682,7 +10682,7 @@
         <v>9</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="G343" s="4" t="s">
         <v>227</v>
@@ -10697,26 +10697,21 @@
         <v>450</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>605</v>
+        <v>22</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G344" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H344" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I344" s="3" t="s">
-        <v>607</v>
-      </c>
+      <c r="I344" s="3"/>
     </row>
     <row r="345" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
@@ -10726,7 +10721,7 @@
         <v>450</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>22</v>
@@ -10735,7 +10730,7 @@
         <v>9</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G345" s="4" t="s">
         <v>227</v>
@@ -10750,7 +10745,7 @@
         <v>450</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>22</v>
@@ -10759,7 +10754,7 @@
         <v>9</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G346" s="4" t="s">
         <v>227</v>
@@ -10774,21 +10769,26 @@
         <v>450</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>22</v>
+        <v>605</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="G347" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="I347" s="3"/>
+      <c r="H347" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I347" s="3" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="348" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
@@ -10798,7 +10798,7 @@
         <v>450</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>22</v>
@@ -10807,7 +10807,7 @@
         <v>9</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="G348" s="4" t="s">
         <v>227</v>
@@ -10822,7 +10822,7 @@
         <v>450</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>22</v>
@@ -10831,7 +10831,7 @@
         <v>9</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="G349" s="4" t="s">
         <v>227</v>
@@ -10846,7 +10846,7 @@
         <v>450</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>22</v>
@@ -10855,7 +10855,7 @@
         <v>9</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="G350" s="4" t="s">
         <v>227</v>
@@ -10870,7 +10870,7 @@
         <v>450</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>22</v>
@@ -10879,7 +10879,7 @@
         <v>9</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G351" s="4" t="s">
         <v>227</v>
@@ -10894,7 +10894,7 @@
         <v>450</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>22</v>
@@ -10903,7 +10903,7 @@
         <v>9</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G352" s="4" t="s">
         <v>227</v>
@@ -10918,7 +10918,7 @@
         <v>450</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>22</v>
@@ -10927,14 +10927,14 @@
         <v>9</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G353" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I353" s="3"/>
     </row>
-    <row r="354" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>13</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>450</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>22</v>
@@ -10951,7 +10951,7 @@
         <v>9</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G354" s="4" t="s">
         <v>227</v>
@@ -10966,7 +10966,7 @@
         <v>450</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>22</v>
@@ -10975,14 +10975,12 @@
         <v>9</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G355" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="I355" s="3" t="s">
-        <v>519</v>
-      </c>
+      <c r="I355" s="3"/>
     </row>
     <row r="356" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
@@ -10992,28 +10990,23 @@
         <v>450</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>605</v>
+        <v>22</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G356" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H356" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I356" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I356" s="3"/>
+    </row>
+    <row r="357" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>13</v>
       </c>
@@ -11021,7 +11014,7 @@
         <v>450</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>22</v>
@@ -11030,14 +11023,12 @@
         <v>9</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="G357" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="I357" s="3" t="s">
-        <v>523</v>
-      </c>
+      <c r="I357" s="3"/>
     </row>
     <row r="358" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
@@ -11047,123 +11038,128 @@
         <v>450</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>605</v>
+        <v>22</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F358" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="G358" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I358" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="G359" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H359" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I359" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F360" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="G358" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H358" s="1" t="b">
+      <c r="G360" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I360" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F361" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G361" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H361" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I358" s="3" t="s">
+      <c r="I361" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C359" s="6"/>
-      <c r="D359" s="2"/>
-      <c r="F359" s="3"/>
-      <c r="G359" s="4"/>
-      <c r="I359" s="3"/>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C360" s="6"/>
-      <c r="D360" s="2"/>
-      <c r="F360" s="3"/>
-      <c r="G360" s="4"/>
-      <c r="I360" s="3"/>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C361" s="6"/>
-      <c r="D361" s="2"/>
-      <c r="F361" s="3"/>
-      <c r="G361" s="4"/>
-      <c r="I361" s="3"/>
-    </row>
-    <row r="362" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E362" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F362" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="G362" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I362" s="3" t="s">
-        <v>523</v>
-      </c>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C362" s="6"/>
+      <c r="D362" s="2"/>
+      <c r="F362" s="3"/>
+      <c r="G362" s="4"/>
+      <c r="I362" s="3"/>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C363" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="D363" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F363" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="G363" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C363" s="6"/>
+      <c r="D363" s="2"/>
+      <c r="F363" s="3"/>
+      <c r="G363" s="4"/>
       <c r="I363" s="3"/>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C364" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="D364" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E364" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F364" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="G364" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I364" s="3" t="s">
-        <v>540</v>
-      </c>
+      <c r="C364" s="6"/>
+      <c r="D364" s="2"/>
+      <c r="F364" s="3"/>
+      <c r="G364" s="4"/>
+      <c r="I364" s="3"/>
     </row>
     <row r="365" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
@@ -11173,7 +11169,7 @@
         <v>524</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>22</v>
@@ -11182,16 +11178,16 @@
         <v>9</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="G365" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I365" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>13</v>
       </c>
@@ -11199,7 +11195,7 @@
         <v>524</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>22</v>
@@ -11208,14 +11204,14 @@
         <v>9</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="G366" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I366" s="3"/>
     </row>
-    <row r="367" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>13</v>
       </c>
@@ -11223,7 +11219,7 @@
         <v>524</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>22</v>
@@ -11232,12 +11228,14 @@
         <v>9</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="G367" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="I367" s="3"/>
+      <c r="I367" s="3" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="368" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
@@ -11247,7 +11245,7 @@
         <v>524</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>22</v>
@@ -11256,12 +11254,14 @@
         <v>9</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="G368" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="I368" s="3"/>
+      <c r="I368" s="3" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="369" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
@@ -11271,7 +11271,7 @@
         <v>524</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>22</v>
@@ -11280,14 +11280,12 @@
         <v>9</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="G369" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="I369" s="3" t="s">
-        <v>570</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="I369" s="3"/>
     </row>
     <row r="370" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
@@ -11297,7 +11295,7 @@
         <v>524</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>22</v>
@@ -11306,10 +11304,10 @@
         <v>9</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="G370" s="4" t="s">
-        <v>569</v>
+        <v>227</v>
       </c>
       <c r="I370" s="3"/>
     </row>
@@ -11321,7 +11319,7 @@
         <v>524</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>22</v>
@@ -11330,10 +11328,10 @@
         <v>9</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="G371" s="4" t="s">
-        <v>569</v>
+        <v>227</v>
       </c>
       <c r="I371" s="3"/>
     </row>
@@ -11345,7 +11343,7 @@
         <v>524</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>22</v>
@@ -11354,12 +11352,14 @@
         <v>9</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="G372" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="I372" s="3"/>
+      <c r="I372" s="3" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="373" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
@@ -11369,7 +11369,7 @@
         <v>524</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>22</v>
@@ -11378,7 +11378,7 @@
         <v>9</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="G373" s="4" t="s">
         <v>569</v>
@@ -11393,7 +11393,7 @@
         <v>524</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>22</v>
@@ -11402,32 +11402,83 @@
         <v>9</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="G374" s="4" t="s">
         <v>569</v>
       </c>
       <c r="I374" s="3"/>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C375" s="6"/>
-      <c r="D375" s="2"/>
-      <c r="F375" s="3"/>
-      <c r="G375" s="4"/>
+    <row r="375" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C375" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G375" s="4" t="s">
+        <v>569</v>
+      </c>
       <c r="I375" s="3"/>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C376" s="6"/>
-      <c r="D376" s="2"/>
-      <c r="F376" s="3"/>
-      <c r="G376" s="4"/>
+    <row r="376" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C376" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G376" s="4" t="s">
+        <v>569</v>
+      </c>
       <c r="I376" s="3"/>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C377" s="6"/>
-      <c r="D377" s="2"/>
-      <c r="F377" s="3"/>
-      <c r="G377" s="4"/>
+    <row r="377" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C377" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F377" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="G377" s="4" t="s">
+        <v>569</v>
+      </c>
       <c r="I377" s="3"/>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
@@ -11451,83 +11502,28 @@
       <c r="G380" s="4"/>
       <c r="I380" s="3"/>
     </row>
-    <row r="381" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C381" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="D381" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F381" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="G381" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I381" s="3" t="s">
-        <v>523</v>
-      </c>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C381" s="6"/>
+      <c r="D381" s="2"/>
+      <c r="F381" s="3"/>
+      <c r="G381" s="4"/>
+      <c r="I381" s="3"/>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C382" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="D382" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E382" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F382" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="G382" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I382" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C383" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="D383" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F383" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="G383" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C382" s="6"/>
+      <c r="D382" s="2"/>
+      <c r="F382" s="3"/>
+      <c r="G382" s="4"/>
+      <c r="I382" s="3"/>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C383" s="6"/>
+      <c r="D383" s="2"/>
+      <c r="F383" s="3"/>
+      <c r="G383" s="4"/>
       <c r="I383" s="3"/>
     </row>
-    <row r="384" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>13</v>
       </c>
@@ -11535,7 +11531,7 @@
         <v>530</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>22</v>
@@ -11544,14 +11540,16 @@
         <v>9</v>
       </c>
       <c r="F384" s="3" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="G384" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="I384" s="3"/>
-    </row>
-    <row r="385" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I384" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>13</v>
       </c>
@@ -11559,7 +11557,7 @@
         <v>530</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>22</v>
@@ -11568,12 +11566,14 @@
         <v>9</v>
       </c>
       <c r="F385" s="3" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="G385" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="I385" s="3"/>
+      <c r="I385" s="3" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="386" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
@@ -11583,7 +11583,7 @@
         <v>530</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>22</v>
@@ -11592,7 +11592,7 @@
         <v>9</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="G386" s="4" t="s">
         <v>227</v>
@@ -11607,7 +11607,7 @@
         <v>530</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>22</v>
@@ -11616,7 +11616,7 @@
         <v>9</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="G387" s="4" t="s">
         <v>227</v>
@@ -11631,7 +11631,7 @@
         <v>530</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>22</v>
@@ -11640,7 +11640,7 @@
         <v>9</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="G388" s="4" t="s">
         <v>227</v>
@@ -11655,7 +11655,7 @@
         <v>530</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>22</v>
@@ -11664,7 +11664,7 @@
         <v>9</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="G389" s="4" t="s">
         <v>227</v>
@@ -11679,7 +11679,7 @@
         <v>530</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>22</v>
@@ -11688,7 +11688,7 @@
         <v>9</v>
       </c>
       <c r="F390" s="3" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G390" s="4" t="s">
         <v>227</v>
@@ -11703,7 +11703,7 @@
         <v>530</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>22</v>
@@ -11712,7 +11712,7 @@
         <v>9</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="G391" s="4" t="s">
         <v>227</v>
@@ -11727,7 +11727,7 @@
         <v>530</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>22</v>
@@ -11736,14 +11736,14 @@
         <v>9</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="G392" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I392" s="3"/>
     </row>
-    <row r="393" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>13</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>530</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>22</v>
@@ -11760,14 +11760,14 @@
         <v>9</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="G393" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I393" s="3"/>
     </row>
-    <row r="394" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>13</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>530</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>22</v>
@@ -11784,14 +11784,14 @@
         <v>9</v>
       </c>
       <c r="F394" s="3" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="G394" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I394" s="3"/>
     </row>
-    <row r="395" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>13</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>530</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>22</v>
@@ -11808,32 +11808,83 @@
         <v>9</v>
       </c>
       <c r="F395" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="G395" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I395" s="3"/>
+    </row>
+    <row r="396" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C396" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G396" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I396" s="3"/>
+    </row>
+    <row r="397" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C397" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G397" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I397" s="3"/>
+    </row>
+    <row r="398" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C398" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F398" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="G395" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I395" s="3"/>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C396" s="6"/>
-      <c r="D396" s="2"/>
-      <c r="F396" s="3"/>
-      <c r="G396" s="4"/>
-      <c r="I396" s="3"/>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C397" s="6"/>
-      <c r="D397" s="2"/>
-      <c r="F397" s="3"/>
-      <c r="G397" s="4"/>
-      <c r="I397" s="3"/>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C398" s="6"/>
-      <c r="D398" s="2"/>
-      <c r="F398" s="3"/>
-      <c r="G398" s="4"/>
+      <c r="G398" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="I398" s="3"/>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
@@ -11843,81 +11894,28 @@
       <c r="G399" s="4"/>
       <c r="I399" s="3"/>
     </row>
-    <row r="400" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C400" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="D400" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E400" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F400" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G400" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I400" s="3" t="s">
-        <v>523</v>
-      </c>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C400" s="6"/>
+      <c r="D400" s="2"/>
+      <c r="F400" s="3"/>
+      <c r="G400" s="4"/>
+      <c r="I400" s="3"/>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C401" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="D401" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E401" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F401" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="G401" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C401" s="6"/>
+      <c r="D401" s="2"/>
+      <c r="F401" s="3"/>
+      <c r="G401" s="4"/>
       <c r="I401" s="3"/>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C402" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="D402" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E402" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F402" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="G402" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C402" s="6"/>
+      <c r="D402" s="2"/>
+      <c r="F402" s="3"/>
+      <c r="G402" s="4"/>
       <c r="I402" s="3"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>13</v>
       </c>
@@ -11925,7 +11923,7 @@
         <v>531</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>22</v>
@@ -11934,12 +11932,14 @@
         <v>9</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="G403" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="I403" s="3"/>
+      <c r="I403" s="3" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
@@ -11949,7 +11949,7 @@
         <v>531</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="D404" s="2" t="s">
         <v>22</v>
@@ -11958,14 +11958,12 @@
         <v>9</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="G404" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I404" s="3" t="s">
-        <v>558</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="I404" s="3"/>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
@@ -11975,7 +11973,7 @@
         <v>531</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>22</v>
@@ -11984,10 +11982,10 @@
         <v>9</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="G405" s="4" t="s">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="I405" s="3"/>
     </row>
@@ -11999,7 +11997,7 @@
         <v>531</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>22</v>
@@ -12008,10 +12006,10 @@
         <v>9</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="G406" s="4" t="s">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="I406" s="3"/>
     </row>
@@ -12023,7 +12021,7 @@
         <v>531</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>22</v>
@@ -12032,12 +12030,14 @@
         <v>9</v>
       </c>
       <c r="F407" s="3" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="G407" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I407" s="3"/>
+      <c r="I407" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
@@ -12047,7 +12047,7 @@
         <v>531</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>22</v>
@@ -12056,7 +12056,7 @@
         <v>9</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="G408" s="4" t="s">
         <v>19</v>
@@ -12071,7 +12071,7 @@
         <v>531</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>22</v>
@@ -12080,7 +12080,7 @@
         <v>9</v>
       </c>
       <c r="F409" s="3" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="G409" s="4" t="s">
         <v>19</v>
@@ -12095,7 +12095,7 @@
         <v>531</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>22</v>
@@ -12104,7 +12104,7 @@
         <v>9</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="G410" s="4" t="s">
         <v>19</v>
@@ -12112,24 +12112,75 @@
       <c r="I410" s="3"/>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C411" s="6"/>
-      <c r="D411" s="2"/>
-      <c r="F411" s="3"/>
-      <c r="G411" s="4"/>
+      <c r="A411" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C411" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="G411" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="I411" s="3"/>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C412" s="6"/>
-      <c r="D412" s="2"/>
-      <c r="F412" s="3"/>
-      <c r="G412" s="4"/>
+      <c r="A412" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C412" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G412" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="I412" s="3"/>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C413" s="6"/>
-      <c r="D413" s="2"/>
-      <c r="F413" s="3"/>
-      <c r="G413" s="4"/>
+      <c r="A413" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C413" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G413" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="I413" s="3"/>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
@@ -12139,81 +12190,28 @@
       <c r="G414" s="4"/>
       <c r="I414" s="3"/>
     </row>
-    <row r="415" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C415" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E415" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F415" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="G415" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I415" s="3" t="s">
-        <v>535</v>
-      </c>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C415" s="6"/>
+      <c r="D415" s="2"/>
+      <c r="F415" s="3"/>
+      <c r="G415" s="4"/>
+      <c r="I415" s="3"/>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C416" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E416" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F416" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="G416" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C416" s="6"/>
+      <c r="D416" s="2"/>
+      <c r="F416" s="3"/>
+      <c r="G416" s="4"/>
       <c r="I416" s="3"/>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C417" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E417" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F417" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="G417" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="C417" s="6"/>
+      <c r="D417" s="2"/>
+      <c r="F417" s="3"/>
+      <c r="G417" s="4"/>
       <c r="I417" s="3"/>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>13</v>
       </c>
@@ -12221,7 +12219,7 @@
         <v>532</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>22</v>
@@ -12230,14 +12228,16 @@
         <v>9</v>
       </c>
       <c r="F418" s="3" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="G418" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I418" s="3"/>
-    </row>
-    <row r="419" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I418" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>13</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>532</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>22</v>
@@ -12254,14 +12254,14 @@
         <v>9</v>
       </c>
       <c r="F419" s="3" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="G419" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I419" s="3"/>
     </row>
-    <row r="420" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>13</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>532</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="D420" s="2" t="s">
         <v>22</v>
@@ -12278,14 +12278,14 @@
         <v>9</v>
       </c>
       <c r="F420" s="3" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="G420" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I420" s="3"/>
     </row>
-    <row r="421" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>13</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>532</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="D421" s="2" t="s">
         <v>22</v>
@@ -12302,7 +12302,7 @@
         <v>9</v>
       </c>
       <c r="F421" s="3" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="G421" s="4" t="s">
         <v>227</v>
@@ -12317,7 +12317,7 @@
         <v>532</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>22</v>
@@ -12326,14 +12326,14 @@
         <v>9</v>
       </c>
       <c r="F422" s="3" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="G422" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I422" s="3"/>
     </row>
-    <row r="423" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>13</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>532</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>22</v>
@@ -12350,14 +12350,14 @@
         <v>9</v>
       </c>
       <c r="F423" s="3" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="G423" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I423" s="3"/>
     </row>
-    <row r="424" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>13</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>532</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="D424" s="2" t="s">
         <v>22</v>
@@ -12374,14 +12374,14 @@
         <v>9</v>
       </c>
       <c r="F424" s="3" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="G424" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I424" s="3"/>
     </row>
-    <row r="425" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>13</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>532</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="D425" s="2" t="s">
         <v>22</v>
@@ -12398,14 +12398,14 @@
         <v>9</v>
       </c>
       <c r="F425" s="3" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="G425" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I425" s="3"/>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>13</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>532</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>22</v>
@@ -12422,14 +12422,14 @@
         <v>9</v>
       </c>
       <c r="F426" s="3" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="G426" s="4" t="s">
         <v>227</v>
       </c>
       <c r="I426" s="3"/>
     </row>
-    <row r="427" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>13</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>532</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="D427" s="2" t="s">
         <v>22</v>
@@ -12446,7 +12446,7 @@
         <v>9</v>
       </c>
       <c r="F427" s="3" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="G427" s="4" t="s">
         <v>227</v>
@@ -12461,7 +12461,7 @@
         <v>532</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="D428" s="2" t="s">
         <v>22</v>
@@ -12470,117 +12470,174 @@
         <v>9</v>
       </c>
       <c r="F428" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G428" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I428" s="3"/>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C429" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F429" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="G429" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I429" s="3"/>
+    </row>
+    <row r="430" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C430" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F430" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G430" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I430" s="3"/>
+    </row>
+    <row r="431" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C431" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F431" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="G428" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I428" s="3"/>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C429" s="6"/>
-      <c r="D429" s="2"/>
-      <c r="F429" s="3"/>
-      <c r="G429" s="4"/>
-      <c r="I429" s="3"/>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C430" s="6"/>
-      <c r="D430" s="2"/>
-      <c r="F430" s="3"/>
-      <c r="G430" s="4"/>
-      <c r="I430" s="3"/>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C431" s="6"/>
-      <c r="D431" s="2"/>
+      <c r="G431" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="I431" s="3"/>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="s">
+      <c r="C432" s="6"/>
+      <c r="D432" s="2"/>
+      <c r="F432" s="3"/>
+      <c r="G432" s="4"/>
+      <c r="I432" s="3"/>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C433" s="6"/>
+      <c r="D433" s="2"/>
+      <c r="F433" s="3"/>
+      <c r="G433" s="4"/>
+      <c r="I433" s="3"/>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C434" s="6"/>
+      <c r="D434" s="2"/>
+      <c r="I434" s="3"/>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B432" s="1" t="s">
+      <c r="B435" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C432" s="6" t="s">
+      <c r="C435" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="D432" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E432" s="1" t="s">
+      <c r="D435" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E435" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F432" s="1" t="s">
+      <c r="F435" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="G432" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I432" s="3"/>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
+      <c r="G435" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I435" s="3"/>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B433" s="1" t="s">
+      <c r="B436" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C433" s="6" t="s">
+      <c r="C436" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="D433" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E433" s="1" t="s">
+      <c r="D436" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E436" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F433" s="1" t="s">
+      <c r="F436" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G433" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I433" s="3"/>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
+      <c r="G436" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I436" s="3"/>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="B437" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C434" s="6" t="s">
+      <c r="C437" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="D434" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E434" s="1" t="s">
+      <c r="D437" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E437" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F434" s="1" t="s">
+      <c r="F437" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G434" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I434" s="3"/>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C435" s="6"/>
-      <c r="D435" s="2"/>
-      <c r="I435" s="3"/>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C436" s="6"/>
-      <c r="D436" s="2"/>
-      <c r="I436" s="3"/>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C437" s="6"/>
-      <c r="D437" s="2"/>
+      <c r="G437" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="I437" s="3"/>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.25">
@@ -12672,13 +12729,28 @@
       <c r="C455" s="6"/>
       <c r="D455" s="2"/>
       <c r="I455" s="3"/>
+    </row>
+    <row r="456" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C456" s="6"/>
+      <c r="D456" s="2"/>
+      <c r="I456" s="3"/>
+    </row>
+    <row r="457" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C457" s="6"/>
+      <c r="D457" s="2"/>
+      <c r="I457" s="3"/>
+    </row>
+    <row r="458" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C458" s="6"/>
+      <c r="D458" s="2"/>
+      <c r="I458" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C342" numberStoredAsText="1"/>
+    <ignoredError sqref="C345" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
